--- a/RNC/rnc.metadata.xlsx
+++ b/RNC/rnc.metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JenniferLin/Desktop/Working/2016NCtranscripts/RNC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289E5FB0-CC04-8947-8860-0DE315FB02D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2A1BB5-A699-7448-BAA7-4DAA036D5150}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" xr2:uid="{26FD5FAB-6A1E-8249-998D-6A85A48E7CFE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" activeTab="1" xr2:uid="{26FD5FAB-6A1E-8249-998D-6A85A48E7CFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Monday" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>Last</t>
   </si>
@@ -130,6 +130,12 @@
   </si>
   <si>
     <t>Monday</t>
+  </si>
+  <si>
+    <t>Tiffany</t>
+  </si>
+  <si>
+    <t>rnc.trumptiffany.txt</t>
   </si>
 </sst>
 </file>
@@ -483,7 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC4E94D-E7A0-254A-BB13-F8DE8F32B892}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
@@ -531,11 +537,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF9062-A881-C249-A648-0C6C85EB870B}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -659,6 +665,23 @@
         <v>8</v>
       </c>
       <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
         <v>9</v>
       </c>
     </row>

--- a/RNC/rnc.metadata.xlsx
+++ b/RNC/rnc.metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JenniferLin/Desktop/Working/2016NCtranscripts/RNC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2A1BB5-A699-7448-BAA7-4DAA036D5150}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3BDAA6-EB46-8F42-94E5-524F10E5EED2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" activeTab="1" xr2:uid="{26FD5FAB-6A1E-8249-998D-6A85A48E7CFE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" xr2:uid="{26FD5FAB-6A1E-8249-998D-6A85A48E7CFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Monday" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
   <si>
     <t>Last</t>
   </si>
@@ -136,6 +136,66 @@
   </si>
   <si>
     <t>rnc.trumptiffany.txt</t>
+  </si>
+  <si>
+    <t>Melania</t>
+  </si>
+  <si>
+    <t>Giuliani</t>
+  </si>
+  <si>
+    <t>Rudy</t>
+  </si>
+  <si>
+    <t>rnc.giuliani.txt</t>
+  </si>
+  <si>
+    <t>rnc.trumpmelania.txt</t>
+  </si>
+  <si>
+    <t>Sessions</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>rnc.sessions.txt</t>
+  </si>
+  <si>
+    <t>Flynn</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>rnc.flynn.txt</t>
+  </si>
+  <si>
+    <t>Ernst</t>
+  </si>
+  <si>
+    <t>Joni</t>
+  </si>
+  <si>
+    <t>rnc.ernst.txt</t>
+  </si>
+  <si>
+    <t>Robertson</t>
+  </si>
+  <si>
+    <t>Willie</t>
+  </si>
+  <si>
+    <t>rnc.robertson.txt</t>
+  </si>
+  <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
+    <t>rnc.perry.txt</t>
   </si>
 </sst>
 </file>
@@ -487,14 +547,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC4E94D-E7A0-254A-BB13-F8DE8F32B892}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -527,6 +590,125 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -539,7 +721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF9062-A881-C249-A648-0C6C85EB870B}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>

--- a/RNC/rnc.metadata.xlsx
+++ b/RNC/rnc.metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JenniferLin/Desktop/Working/2016NCtranscripts/RNC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3BDAA6-EB46-8F42-94E5-524F10E5EED2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AAE432-0923-EC4D-94E1-053E9FB73E53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" xr2:uid="{26FD5FAB-6A1E-8249-998D-6A85A48E7CFE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" activeTab="2" xr2:uid="{26FD5FAB-6A1E-8249-998D-6A85A48E7CFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Monday" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
   <si>
     <t>Last</t>
   </si>
@@ -196,6 +196,51 @@
   </si>
   <si>
     <t>rnc.perry.txt</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
+    <t>rnc.cruz.txt</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Trunp</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>rnc.trumperic.txt</t>
+  </si>
+  <si>
+    <t>Gingrich</t>
+  </si>
+  <si>
+    <t>Newt</t>
+  </si>
+  <si>
+    <t>rnc.gingrich.txt</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>Pence</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>rnc.walker.txt</t>
+  </si>
+  <si>
+    <t>rnc.pence.txt</t>
   </si>
 </sst>
 </file>
@@ -549,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC4E94D-E7A0-254A-BB13-F8DE8F32B892}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
@@ -874,14 +919,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B146880-7194-9F42-9438-599F8886BC19}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -898,6 +946,91 @@
       </c>
       <c r="E1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/RNC/rnc.metadata.xlsx
+++ b/RNC/rnc.metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JenniferLin/Desktop/Working/2016NCtranscripts/RNC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AAE432-0923-EC4D-94E1-053E9FB73E53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C9C509-35CF-624F-9B4A-24200828D627}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" activeTab="2" xr2:uid="{26FD5FAB-6A1E-8249-998D-6A85A48E7CFE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" activeTab="3" xr2:uid="{26FD5FAB-6A1E-8249-998D-6A85A48E7CFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Monday" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
   <si>
     <t>Last</t>
   </si>
@@ -241,6 +241,33 @@
   </si>
   <si>
     <t>rnc.pence.txt</t>
+  </si>
+  <si>
+    <t>Ivanka</t>
+  </si>
+  <si>
+    <t>rnc.trumpivanka.txt</t>
+  </si>
+  <si>
+    <t>Priebus</t>
+  </si>
+  <si>
+    <t>Reince</t>
+  </si>
+  <si>
+    <t>rnc.priebus.txt</t>
+  </si>
+  <si>
+    <t>Rubio</t>
+  </si>
+  <si>
+    <t>Marxo</t>
+  </si>
+  <si>
+    <t>rnc.rubio.txt</t>
+  </si>
+  <si>
+    <t>video</t>
   </si>
 </sst>
 </file>
@@ -921,7 +948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B146880-7194-9F42-9438-599F8886BC19}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
@@ -1040,11 +1067,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5AE94A-B028-BF42-9ECF-05A1490DE85F}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1086,6 +1113,57 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RNC/rnc.metadata.xlsx
+++ b/RNC/rnc.metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JenniferLin/Desktop/Working/2016NCtranscripts/RNC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C9C509-35CF-624F-9B4A-24200828D627}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D84F39A-32C1-7247-A0FB-F51FB7C59B75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" activeTab="3" xr2:uid="{26FD5FAB-6A1E-8249-998D-6A85A48E7CFE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="91">
   <si>
     <t>Last</t>
   </si>
@@ -268,6 +268,45 @@
   </si>
   <si>
     <t>video</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Macleans</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>NY Times</t>
+  </si>
+  <si>
+    <t>WBRC</t>
+  </si>
+  <si>
+    <t>Ottumwa Radio</t>
+  </si>
+  <si>
+    <t>Cision</t>
+  </si>
+  <si>
+    <t>23ABC News</t>
+  </si>
+  <si>
+    <t>Politico</t>
+  </si>
+  <si>
+    <t>Bustle</t>
+  </si>
+  <si>
+    <t>Fox6</t>
+  </si>
+  <si>
+    <t>The Hill</t>
+  </si>
+  <si>
+    <t>Tampa Bay Times</t>
   </si>
 </sst>
 </file>
@@ -619,19 +658,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC4E94D-E7A0-254A-BB13-F8DE8F32B892}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -647,8 +687,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -664,8 +707,11 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -681,8 +727,11 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -698,8 +747,11 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -715,8 +767,11 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -732,8 +787,11 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -749,8 +807,11 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -766,8 +827,11 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -782,6 +846,9 @@
       </c>
       <c r="E9" t="s">
         <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -791,11 +858,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF9062-A881-C249-A648-0C6C85EB870B}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -803,7 +870,7 @@
     <col min="3" max="3" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -819,8 +886,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -836,8 +906,11 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -853,8 +926,11 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -870,8 +946,11 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -887,8 +966,11 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -904,8 +986,11 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -921,8 +1006,11 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -937,6 +1025,9 @@
       </c>
       <c r="E8" t="s">
         <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -946,11 +1037,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B146880-7194-9F42-9438-599F8886BC19}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -958,7 +1049,7 @@
     <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -974,16 +1065,39 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
@@ -991,16 +1105,19 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
         <v>57</v>
@@ -1008,16 +1125,19 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
         <v>57</v>
@@ -1025,16 +1145,19 @@
       <c r="E5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
         <v>57</v>
@@ -1042,22 +1165,8 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
+      <c r="F6" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1067,19 +1176,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5AE94A-B028-BF42-9ECF-05A1490DE85F}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1095,8 +1205,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1112,8 +1225,11 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1129,8 +1245,11 @@
       <c r="E3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -1146,8 +1265,11 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>74</v>
       </c>
@@ -1162,6 +1284,9 @@
       </c>
       <c r="E5" t="s">
         <v>77</v>
+      </c>
+      <c r="F5" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/RNC/rnc.metadata.xlsx
+++ b/RNC/rnc.metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JenniferLin/Desktop/Working/2016NCtranscripts/RNC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D84F39A-32C1-7247-A0FB-F51FB7C59B75}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE689FE7-2526-0E4F-89FE-A4EFE4D10DA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" activeTab="3" xr2:uid="{26FD5FAB-6A1E-8249-998D-6A85A48E7CFE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="11120" xr2:uid="{26FD5FAB-6A1E-8249-998D-6A85A48E7CFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Monday" sheetId="1" r:id="rId1"/>
@@ -342,8 +342,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC4E94D-E7A0-254A-BB13-F8DE8F32B892}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
@@ -1176,9 +1179,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5AE94A-B028-BF42-9ECF-05A1490DE85F}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
@@ -1289,6 +1292,9 @@
         <v>90</v>
       </c>
     </row>
+    <row r="11" spans="1:6">
+      <c r="F11" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RNC/rnc.metadata.xlsx
+++ b/RNC/rnc.metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JenniferLin/Desktop/Working/2016NCtranscripts/RNC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE689FE7-2526-0E4F-89FE-A4EFE4D10DA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726C186A-B057-E143-984B-1C2E11E5F5BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20480" windowHeight="11120" xr2:uid="{26FD5FAB-6A1E-8249-998D-6A85A48E7CFE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" activeTab="1" xr2:uid="{26FD5FAB-6A1E-8249-998D-6A85A48E7CFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Monday" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="116">
   <si>
     <t>Last</t>
   </si>
@@ -307,6 +307,81 @@
   </si>
   <si>
     <t>Tampa Bay Times</t>
+  </si>
+  <si>
+    <t>Luttrell</t>
+  </si>
+  <si>
+    <t>Marcus</t>
+  </si>
+  <si>
+    <t>rnc.luttrell.txt</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Pat</t>
+  </si>
+  <si>
+    <t>rnc.smithpat.txt</t>
+  </si>
+  <si>
+    <t>Geist</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>rnc.geist.txt</t>
+  </si>
+  <si>
+    <t>Sabato</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>rnc.sabato.txt</t>
+  </si>
+  <si>
+    <t>McCaul</t>
+  </si>
+  <si>
+    <t>rnc.mccaul.txt</t>
+  </si>
+  <si>
+    <t>Clarke</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>rnc.clarke.txt</t>
+  </si>
+  <si>
+    <t>Cotton</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>rnc.cotton.txt</t>
+  </si>
+  <si>
+    <t>Beardsley</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>rnc.beardsley.txt</t>
+  </si>
+  <si>
+    <t>Zinke</t>
+  </si>
+  <si>
+    <t>rnc.zinke.txt</t>
   </si>
 </sst>
 </file>
@@ -661,11 +736,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC4E94D-E7A0-254A-BB13-F8DE8F32B892}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -854,6 +929,186 @@
         <v>84</v>
       </c>
     </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -863,7 +1118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF9062-A881-C249-A648-0C6C85EB870B}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>

--- a/RNC/rnc.metadata.xlsx
+++ b/RNC/rnc.metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JenniferLin/Desktop/Working/2016NCtranscripts/RNC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726C186A-B057-E143-984B-1C2E11E5F5BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7690F444-7E9C-4942-B500-63C5842BBB53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" activeTab="1" xr2:uid="{26FD5FAB-6A1E-8249-998D-6A85A48E7CFE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="151">
   <si>
     <t>Last</t>
   </si>
@@ -382,6 +382,111 @@
   </si>
   <si>
     <t>rnc.zinke.txt</t>
+  </si>
+  <si>
+    <t>Sharon</t>
+  </si>
+  <si>
+    <t>rnc.day.txt</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
+    <t>rnc.white.txt</t>
+  </si>
+  <si>
+    <t>Hutchinson</t>
+  </si>
+  <si>
+    <t>Asa</t>
+  </si>
+  <si>
+    <t>rnc.hutchinson.txt</t>
+  </si>
+  <si>
+    <t>Rutledge</t>
+  </si>
+  <si>
+    <t>Leslie</t>
+  </si>
+  <si>
+    <t>rnc.rutledge.txt</t>
+  </si>
+  <si>
+    <t>Mukasey</t>
+  </si>
+  <si>
+    <t>rnc.mukasey.txt</t>
+  </si>
+  <si>
+    <t>Wist</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>rnc.wist.txt</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>rnc.johnson.txt</t>
+  </si>
+  <si>
+    <t>Cox</t>
+  </si>
+  <si>
+    <t>rnc.cox.txt</t>
+  </si>
+  <si>
+    <t>Gulbis</t>
+  </si>
+  <si>
+    <t>natalie</t>
+  </si>
+  <si>
+    <t>rnc.gulbis.txt</t>
+  </si>
+  <si>
+    <t>Sullivan</t>
+  </si>
+  <si>
+    <t>rnc.sullivandan.txt</t>
+  </si>
+  <si>
+    <t>Woolard</t>
+  </si>
+  <si>
+    <t>Kerry</t>
+  </si>
+  <si>
+    <t>rnc.woolard.txt</t>
+  </si>
+  <si>
+    <t>Capito</t>
+  </si>
+  <si>
+    <t>Shelly</t>
+  </si>
+  <si>
+    <t>rnc.capito.txt</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Kimberlin</t>
+  </si>
+  <si>
+    <t>rnc.brownkim.txt</t>
   </si>
 </sst>
 </file>
@@ -1116,11 +1221,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF9062-A881-C249-A648-0C6C85EB870B}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1286,6 +1391,266 @@
       </c>
       <c r="F8" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/RNC/rnc.metadata.xlsx
+++ b/RNC/rnc.metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JenniferLin/Desktop/Working/2016NCtranscripts/RNC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7690F444-7E9C-4942-B500-63C5842BBB53}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46D9F62-D27C-A24A-9EBF-000FB23E442D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" activeTab="1" xr2:uid="{26FD5FAB-6A1E-8249-998D-6A85A48E7CFE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" activeTab="2" xr2:uid="{26FD5FAB-6A1E-8249-998D-6A85A48E7CFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Monday" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="175">
   <si>
     <t>Last</t>
   </si>
@@ -487,6 +487,78 @@
   </si>
   <si>
     <t>rnc.brownkim.txt</t>
+  </si>
+  <si>
+    <t>rnc.scott.txt</t>
+  </si>
+  <si>
+    <t>Ingrham</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>rnc.ingrham</t>
+  </si>
+  <si>
+    <t>Ruffin</t>
+  </si>
+  <si>
+    <t>Rhil</t>
+  </si>
+  <si>
+    <t>rnc.ruffin.txt</t>
+  </si>
+  <si>
+    <t>Bondi</t>
+  </si>
+  <si>
+    <t>Pam</t>
+  </si>
+  <si>
+    <t>rnc.bondi.txt</t>
+  </si>
+  <si>
+    <t>Collins</t>
+  </si>
+  <si>
+    <t>Eileen</t>
+  </si>
+  <si>
+    <t>rnc.collins.txt</t>
+  </si>
+  <si>
+    <t>Van Etten</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
+    <t>rnc.etten.txt</t>
+  </si>
+  <si>
+    <t>Alvarado</t>
+  </si>
+  <si>
+    <t>Ralph</t>
+  </si>
+  <si>
+    <t>rnc.alvarado.txt</t>
+  </si>
+  <si>
+    <t>Darrell</t>
+  </si>
+  <si>
+    <t>rnc.scottdarrell.txt</t>
+  </si>
+  <si>
+    <t>Hamm</t>
+  </si>
+  <si>
+    <t>Harold</t>
+  </si>
+  <si>
+    <t>rnc.hamm.txt</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF9062-A881-C249-A648-0C6C85EB870B}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
@@ -1660,11 +1732,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B146880-7194-9F42-9438-599F8886BC19}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1790,6 +1862,186 @@
       </c>
       <c r="F6" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/RNC/rnc.metadata.xlsx
+++ b/RNC/rnc.metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JenniferLin/Desktop/Working/2016NCtranscripts/RNC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46D9F62-D27C-A24A-9EBF-000FB23E442D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660F78A7-30B0-C344-9676-4D81821633BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" activeTab="2" xr2:uid="{26FD5FAB-6A1E-8249-998D-6A85A48E7CFE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" activeTab="3" xr2:uid="{26FD5FAB-6A1E-8249-998D-6A85A48E7CFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Monday" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="204">
   <si>
     <t>Last</t>
   </si>
@@ -559,6 +559,93 @@
   </si>
   <si>
     <t>rnc.hamm.txt</t>
+  </si>
+  <si>
+    <t>Mealer</t>
+  </si>
+  <si>
+    <t>Brock</t>
+  </si>
+  <si>
+    <t>rnc.mealer.txt</t>
+  </si>
+  <si>
+    <t>Blackburn</t>
+  </si>
+  <si>
+    <t>Marsha</t>
+  </si>
+  <si>
+    <t>rnc.blackburn.txt</t>
+  </si>
+  <si>
+    <t>Fallin</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>rnc.fallin.txt</t>
+  </si>
+  <si>
+    <t>Shin</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>rnc.shin.txt</t>
+  </si>
+  <si>
+    <t>Falwell</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>rnc.falwell.txt</t>
+  </si>
+  <si>
+    <t>Thiel</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>rnc.thiel.txt</t>
+  </si>
+  <si>
+    <t>Burns</t>
+  </si>
+  <si>
+    <t>rnc.burns.txt</t>
+  </si>
+  <si>
+    <t>Barrack</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>rnc.barrack.txt</t>
+  </si>
+  <si>
+    <t>Tarkenton</t>
+  </si>
+  <si>
+    <t>Fran</t>
+  </si>
+  <si>
+    <t>rnc.tarkenton.txt</t>
+  </si>
+  <si>
+    <t>Perkins</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>rnc.perkins.txt</t>
   </si>
 </sst>
 </file>
@@ -594,11 +681,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1734,7 +1818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B146880-7194-9F42-9438-599F8886BC19}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
@@ -2051,11 +2135,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5AE94A-B028-BF42-9ECF-05A1490DE85F}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2164,8 +2248,205 @@
         <v>90</v>
       </c>
     </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
+    </row>
     <row r="11" spans="1:6">
-      <c r="F11" s="1"/>
+      <c r="A11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RNC/rnc.metadata.xlsx
+++ b/RNC/rnc.metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JenniferLin/Desktop/Working/2016NCtranscripts/RNC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660F78A7-30B0-C344-9676-4D81821633BC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B23071-1FBA-EA4F-B11B-A441996EEE30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" activeTab="3" xr2:uid="{26FD5FAB-6A1E-8249-998D-6A85A48E7CFE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20480" windowHeight="12800" xr2:uid="{26FD5FAB-6A1E-8249-998D-6A85A48E7CFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Monday" sheetId="1" r:id="rId1"/>
@@ -999,7 +999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CC4E94D-E7A0-254A-BB13-F8DE8F32B892}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
@@ -2137,7 +2137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5AE94A-B028-BF42-9ECF-05A1490DE85F}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
